--- a/Projetos/Desenvolvimento de Jogos - DJS/DATAS.xlsx
+++ b/Projetos/Desenvolvimento de Jogos - DJS/DATAS.xlsx
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>Tarefas</t>
-  </si>
-  <si>
-    <t>Responsável</t>
-  </si>
-  <si>
-    <t>Entrega</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Descrição</t>
   </si>
@@ -36,64 +27,126 @@
     <t xml:space="preserve">Reunião inicial, definir projetos e metas, criar repositórios </t>
   </si>
   <si>
-    <t>Pesquisa sobre Interface Gráfica em Arduino</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
-    <t>Definição da Linguagem e ferramentas que serão utilizadas</t>
-  </si>
-  <si>
-    <t>Desenvolvimento da Interface Gráfica</t>
-  </si>
-  <si>
     <t>Testes e Validação</t>
   </si>
   <si>
     <t>Documentação e Treinamento</t>
   </si>
   <si>
-    <t>Revisão e Ajustes</t>
-  </si>
-  <si>
-    <t>Documento Proposta anexado. Documento com links úteis criado.Fiz algumas alterações no código</t>
-  </si>
-  <si>
-    <t>DD/MM/AAAA</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
     <t>Entrega Final + Apresentação</t>
   </si>
   <si>
-    <t>17/06/2025</t>
-  </si>
-  <si>
-    <t>Definir visual da Interface</t>
-  </si>
-  <si>
     <t>Luan</t>
+  </si>
+  <si>
+    <t>Pesquisa sobre Jogos, Engines, Linguages para games</t>
+  </si>
+  <si>
+    <t>Definição da Linguagem/Engine e ferramentas que serão utilizadas</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Comentários</t>
+  </si>
+  <si>
+    <t>Criar repositório no Github com divisão dos diretórios e arquivos.
+Definir datas e descrição dos projetos</t>
+  </si>
+  <si>
+    <t>Link do repositório Github com os projetos  https://github.com/Danntav/GEEC</t>
+  </si>
+  <si>
+    <t>Definir mecânicas básicas e esboço inicial da interface</t>
+  </si>
+  <si>
+    <t>Escolher um tipo de jogo, trazendo opções(2D, 3D, plataforma, shooter...). Definir plataforma (PC, android, iOS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar como será o básico do jogo: personagem, movimentação, golpes, ambiente, inimigos, etc). </t>
+  </si>
+  <si>
+    <t>Criar menus inicial, configuração e sair</t>
+  </si>
+  <si>
+    <t>Testes e correção de bugs. Ajustar o balanceamento do jogo</t>
+  </si>
+  <si>
+    <t>Demonstrar o jogo ao grupo. Discutir melhorias.</t>
+  </si>
+  <si>
+    <t>Desenvolver o jogo</t>
+  </si>
+  <si>
+    <t>Pesquisar sobre desenvolvimento de jogos. Engines para jogos específicos. 
+Programação de jogos "from scratch" (do zero, sem engine). Tipos de jogos.
+Apresentar ao grupo vantagens e desvantagens dessas abordagens.</t>
+  </si>
+  <si>
+    <t>Escolher a melhor engine para o projeto. Porque?
+Descrever quais outras ferramentas serão usados (ex:.vscode, editor de sprites, sites com galeria de sons)</t>
+  </si>
+  <si>
+    <t>22/4/2025</t>
+  </si>
+  <si>
+    <t>Criar um guia de passo a passo do desenvolvimento do projeto. Mostrar os conceitos aprendidos, junto com os pontos que achou fácil e difícil.
+Mostrar todas as ferramentas utilizadas</t>
+  </si>
+  <si>
+    <t>RESPONSÁVEL</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>TAREFAS</t>
+  </si>
+  <si>
+    <t>OK?</t>
+  </si>
+  <si>
+    <t>Definir conceitos do jogo e plataforma</t>
+  </si>
+  <si>
+    <t>//2025</t>
+  </si>
+  <si>
+    <t>/2025</t>
+  </si>
+  <si>
+    <t>MVP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Criar um protótipo básico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Implementar movimentação e mecânica dos componentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Criar assets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Melhorias</t>
+  </si>
+  <si>
+    <t>Criar Menus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
@@ -123,13 +176,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -144,17 +190,37 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -172,20 +238,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF46BDC6"/>
       </patternFill>
     </fill>
     <fill>
@@ -194,8 +248,20 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -261,102 +327,70 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -368,21 +402,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF34A853"/>
-          <bgColor rgb="FF34A853"/>
         </patternFill>
       </fill>
     </dxf>
@@ -418,9 +437,99 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF34A853"/>
-          <bgColor rgb="FF34A853"/>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -475,7 +584,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$D$2" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$14" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$15" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$10" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$11" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,27 +616,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$8" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$9" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$12" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$7" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$8" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$9" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$6" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$D$13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,15 +646,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>196474</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>96984</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>876300</xdr:colOff>
+          <xdr:colOff>448480</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>30915</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -581,15 +710,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
+          <xdr:colOff>202179</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>185825</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
+          <xdr:colOff>415352</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>347750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -645,15 +774,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>191222</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>21754</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>385345</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>222644</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -709,15 +838,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>187235</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>7871</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:colOff>381358</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>187538</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -773,15 +902,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>202845</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>31301</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>647700</xdr:colOff>
+          <xdr:colOff>406493</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>224048</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -837,15 +966,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>438150</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>207265</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>36726</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>628650</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>401388</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>8153</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -901,15 +1030,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>212919</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>44053</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:colOff>407042</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>225028</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -965,15 +1094,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>197183</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>27568</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>219075</xdr:rowOff>
+          <xdr:colOff>391306</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>208543</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1029,15 +1158,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:colOff>212919</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>36865</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>10</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:colOff>407042</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>8289</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1085,6 +1214,301 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>212919</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>40458</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="198559"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>208691</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>5321</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="198559"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>210859</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>36726</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="198560"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>210860</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>40321</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="198560"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>193243</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>67022</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="190500" cy="203338"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1295,308 +1719,437 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="94.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="117.28515625" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>45873</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>45873</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="9">
+        <v>45812</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="b">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>45812</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="16"/>
     </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4" t="b">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>45721</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
-        <v>45722</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="b">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="b">
+      <c r="A8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>45664</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="b">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>45664</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="b">
+      <c r="A10" s="10"/>
+      <c r="B10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="13"/>
+      <c r="A15" s="9">
+        <v>45668</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
+      <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B23:F52">
-    <cfRule type="expression" dxfId="13" priority="6">
+    <cfRule type="expression" dxfId="24" priority="38">
       <formula>$E23=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:E4 A5 C5:E5 A16:E20 A15 C15:E15 C7:E9 A7:A9 A6:E6 A13:E14 A10:E10">
-    <cfRule type="expression" dxfId="12" priority="8">
+  <conditionalFormatting sqref="A2:E3 F3 A4:F4 A18:E20 A6:F15">
+    <cfRule type="expression" dxfId="23" priority="40">
       <formula>$D2=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:E4 A5 C5:E5 A15 C15:E15 A16:E16 A18:E21 A9 C9:E9 A7:E7">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>$B1=VERDADEIRO</formula>
+  <conditionalFormatting sqref="A6 C6:F6">
+    <cfRule type="expression" dxfId="22" priority="42">
+      <formula>$B3=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="expression" dxfId="10" priority="21">
+    <cfRule type="expression" dxfId="21" priority="53">
       <formula>$C1048576=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="9" priority="23">
+    <cfRule type="expression" dxfId="20" priority="55">
       <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="8" priority="25">
-      <formula>$D7=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:E17 A8:E8 A10:E10 A6:E6">
-    <cfRule type="expression" dxfId="7" priority="31">
+  <conditionalFormatting sqref="A9:E9 A13:E13 A7:E7">
+    <cfRule type="expression" dxfId="19" priority="63">
       <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="expression" dxfId="6" priority="34">
-      <formula>$D8=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>$D9=TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="4" priority="58">
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="18" priority="90">
       <formula>$B3=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="3" priority="66">
+  <conditionalFormatting sqref="B12">
+    <cfRule type="expression" dxfId="17" priority="106">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:F15">
+    <cfRule type="expression" dxfId="16" priority="110">
+      <formula>$B7=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:E14">
+    <cfRule type="expression" dxfId="15" priority="30">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:E15">
+    <cfRule type="expression" dxfId="14" priority="28">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:E19">
+    <cfRule type="expression" dxfId="13" priority="117">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:E10">
+    <cfRule type="expression" dxfId="12" priority="26">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:E11">
+    <cfRule type="expression" dxfId="11" priority="23">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:E21 A3:F4 A8:F8">
+    <cfRule type="expression" dxfId="10" priority="18">
+      <formula>$B1=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9 F13 F7">
+    <cfRule type="expression" dxfId="9" priority="19">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="8" priority="15">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="expression" dxfId="6" priority="13">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>#REF!=VERDADEIRO</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>$D2=TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:F5">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D5=TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="2" priority="74">
+  <conditionalFormatting sqref="A5:E5">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:E13">
-    <cfRule type="expression" dxfId="1" priority="78">
-      <formula>$B6=VERDADEIRO</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:E14">
-    <cfRule type="expression" dxfId="0" priority="81">
-      <formula>$B10=VERDADEIRO</formula>
+  <conditionalFormatting sqref="A12 C12:F12">
+    <cfRule type="expression" dxfId="0" priority="123">
+      <formula>$B8=VERDADEIRO</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1613,15 +2166,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>95250</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>876300</xdr:colOff>
+                    <xdr:colOff>447675</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>85725</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1635,15 +2188,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
+                    <xdr:colOff>200025</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>647700</xdr:colOff>
+                    <xdr:colOff>419100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>352425</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1657,15 +2210,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
+                    <xdr:colOff>190500</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>219075</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1679,15 +2232,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1701,15 +2254,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>6</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>647700</xdr:colOff>
+                    <xdr:colOff>409575</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1723,14 +2276,14 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>438150</xdr:colOff>
-                    <xdr:row>7</xdr:row>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>628650</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
@@ -1745,15 +2298,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>8</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1767,15 +2320,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>38100</xdr:rowOff>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
-                    <xdr:row>5</xdr:row>
-                    <xdr:rowOff>219075</xdr:rowOff>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>209550</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1789,15 +2342,125 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>447675</xdr:colOff>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId13" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>238125</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId14" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId15" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>638175</xdr:colOff>
+                    <xdr:colOff>400050</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId16" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>400050</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId17" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>381000</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
